--- a/src/main/resources/static/exceltemplate/hebing.xlsx
+++ b/src/main/resources/static/exceltemplate/hebing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,22 @@
   </si>
   <si>
     <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,6 +281,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -284,7 +368,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -563,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW1"/>
+  <dimension ref="A1:BA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AV9" sqref="AV9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -574,7 +658,7 @@
     <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -721,6 +805,18 @@
       </c>
       <c r="AW1" t="s">
         <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
